--- a/downloaded_files/EPES125_Tutorial-35329.xlsx
+++ b/downloaded_files/EPES125_Tutorial-35329.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,15 +265,6 @@
   </x:si>
   <x:si>
     <x:t>Yara Ramy Essam El Din Abd El Aziz Abd El Haa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يحيى هلال عبدالسلام الانور سعد محمد الحلو</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yahia helal</x:t>
   </x:si>
   <x:si>
     <x:t>1230326</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4207256597</x:v>
+        <x:v>45907.4205376157</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.4205376157</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES125_Tutorial-35329.xlsx
+++ b/downloaded_files/EPES125_Tutorial-35329.xlsx
@@ -66,7 +66,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1220003</x:t>
@@ -84,7 +84,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1230157</x:t>

--- a/downloaded_files/EPES125_Tutorial-35329.xlsx
+++ b/downloaded_files/EPES125_Tutorial-35329.xlsx
@@ -147,7 +147,7 @@
     <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
   </x:si>
   <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
+    <x:t>ABDELRAHMAN SAMEH ABDELAZEEM MOHAMED ALY</x:t>
   </x:si>
   <x:si>
     <x:t>1230058</x:t>
@@ -183,7 +183,7 @@
     <x:t>عبدالرحمن مصطفى محمد رضوان احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+    <x:t>ABDELRAHMAN MOSTAFA MOHAMMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1220132</x:t>
@@ -246,7 +246,7 @@
     <x:t>مصطفى ايهاب حلمي محمد رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+    <x:t>MOSTAFA EHAB HELMY MOHAMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230260</x:t>

--- a/downloaded_files/EPES125_Tutorial-35329.xlsx
+++ b/downloaded_files/EPES125_Tutorial-35329.xlsx
@@ -111,7 +111,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>1230176</x:t>
